--- a/biology/Médecine/Padma_Bandopadhyay/Padma_Bandopadhyay.xlsx
+++ b/biology/Médecine/Padma_Bandopadhyay/Padma_Bandopadhyay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Padmavathy ou Padma Bandopadhyay, née le 4 novembre 1944 à Tirupati en Inde, est une médecin et air marshal dans l'Armée de l'air indienne.
 Elle est la première femme à être promue au grade de maréchale de l'Air dans l'Indian Air Force. Elle est la deuxième femme des forces armées indiennes à être promue au rang d'officier général à trois étoiles, après le lieutenant général Punita Arora.
@@ -514,17 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Padmavathy Bandopadhyay est née le 4 novembre 1944 à Tirupati, dans l'État de l'Andhra Pradesh, dans l'Inde britannique. Sa mère est tombée malade de la tuberculose et Padma Bandopadhyay est devenue sa principale soignante à l'âge de 4-5 ans. Par ailleurs, son voisin du quartier du marché de Gole à New Delhi était le Dr Sivaramakrishna Iyer Padmavati, professeur de médecine au Lady Hardinge Medical College. Elle a dit que son expérience avec la maladie de sa mère et son hospitalisation à l'hôpital de Safdarjung, et le fait d'avoir une femme médecin voisine avec le même nom qu'elle, avaient été les premières motivations pour devenir médecin[1].
-Formation
-Padma Bandopadhyay a étudié aux écoles secondaires supérieures de la Delhi Tamil Education Association dans le domaine des sciences humaines. Après avoir obtenu son diplôme de l'école, elle a fait la transition difficile et inhabituelle des sciences humaines vers le domaine scientifique à l'université de Delhi. Elle a étudié la médecine pré-médicale au Kirori Mal College, puis elle a rejoint le Armed Forces Medical College (collège médical des forces armées) à Pune en 1963.
-Carrière
-Padma Bandopadhyay intègre l'armée de l'air indienne (Indian Air Force) en 1968. Elle a épousé Sati Nath Bandopadhyay, un autre officier de l'armée de l'air[2]. Elle a reçu la médaille Vishisht Seva (VSM)[3] pour sa conduite pendant la guerre indo-pakistanaise de 1971 . Sati Nath et Padma Bandopadhyay ont été le premier couple de l'Indian Air Force à recevoir le prix du président lors de la même cérémonie d'investiture[4].
-Elle a été la première femme à devenir membre de la Société médicale aérospatiale de l'Inde et la première femme indienne à mener des recherches scientifiques au pôle Nord[5]. Elle est également la première femme officier des Forces armées à avoir terminé le cours du Collège d'état-major du Service de la Défense en 1978[6]. Elle était directrice générale des services médicaux (air) au quartier général de l'Air[7].
-Elle est devenue la première femme à être promue vice-maréchal de l'air (Air vice-marshal, rang de général deux étoiles) ; elle est nommée à ce grade le 6 novembre 2002[3]. Elle est ensuite devenue la première femme maréchale de l'air (Air marshal, rang de général trois étoiles) de l'Indian Air Force, nommée le 1er octobre 2004[3].
-Padma Bandopadhyay est une spécialiste de la médecine aéronautique et elle est membre de la New York Academy of Sciences[8].
-Elle prend sa retraite le 30 novembre 2005[3].
-Padma Bandopadhyay reçoit en janvier 2020 la Padma Shri, qui est la quatrième plus haute distinction civile indienne[9].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Padmavathy Bandopadhyay est née le 4 novembre 1944 à Tirupati, dans l'État de l'Andhra Pradesh, dans l'Inde britannique. Sa mère est tombée malade de la tuberculose et Padma Bandopadhyay est devenue sa principale soignante à l'âge de 4-5 ans. Par ailleurs, son voisin du quartier du marché de Gole à New Delhi était le Dr Sivaramakrishna Iyer Padmavati, professeur de médecine au Lady Hardinge Medical College. Elle a dit que son expérience avec la maladie de sa mère et son hospitalisation à l'hôpital de Safdarjung, et le fait d'avoir une femme médecin voisine avec le même nom qu'elle, avaient été les premières motivations pour devenir médecin.
 </t>
         </is>
       </c>
@@ -550,13 +558,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Padma Bandopadhyay a étudié aux écoles secondaires supérieures de la Delhi Tamil Education Association dans le domaine des sciences humaines. Après avoir obtenu son diplôme de l'école, elle a fait la transition difficile et inhabituelle des sciences humaines vers le domaine scientifique à l'université de Delhi. Elle a étudié la médecine pré-médicale au Kirori Mal College, puis elle a rejoint le Armed Forces Medical College (collège médical des forces armées) à Pune en 1963.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Padma_Bandopadhyay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Padma_Bandopadhyay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Padma Bandopadhyay intègre l'armée de l'air indienne (Indian Air Force) en 1968. Elle a épousé Sati Nath Bandopadhyay, un autre officier de l'armée de l'air. Elle a reçu la médaille Vishisht Seva (VSM) pour sa conduite pendant la guerre indo-pakistanaise de 1971 . Sati Nath et Padma Bandopadhyay ont été le premier couple de l'Indian Air Force à recevoir le prix du président lors de la même cérémonie d'investiture.
+Elle a été la première femme à devenir membre de la Société médicale aérospatiale de l'Inde et la première femme indienne à mener des recherches scientifiques au pôle Nord. Elle est également la première femme officier des Forces armées à avoir terminé le cours du Collège d'état-major du Service de la Défense en 1978. Elle était directrice générale des services médicaux (air) au quartier général de l'Air.
+Elle est devenue la première femme à être promue vice-maréchal de l'air (Air vice-marshal, rang de général deux étoiles) ; elle est nommée à ce grade le 6 novembre 2002. Elle est ensuite devenue la première femme maréchale de l'air (Air marshal, rang de général trois étoiles) de l'Indian Air Force, nommée le 1er octobre 2004.
+Padma Bandopadhyay est une spécialiste de la médecine aéronautique et elle est membre de la New York Academy of Sciences.
+Elle prend sa retraite le 30 novembre 2005.
+Padma Bandopadhyay reçoit en janvier 2020 la Padma Shri, qui est la quatrième plus haute distinction civile indienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Padma_Bandopadhyay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Padma_Bandopadhyay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Distinctions militaires
- Médaille Param Vishisht Seva, janvier 2006.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinctions militaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Médaille Param Vishisht Seva, janvier 2006.
  Médaille Ati Vishisht Seva, janvier 2002.
  Médaille Vishisht Seva, janvier 1973.
  Paschimi Star.
@@ -567,9 +659,43 @@
  25th Anniversary of Independence Medal.
  30 Years Long Service Medal.
  20 Years Long Service Medal.
- 9 Years Long Service Medal.
-Autres distinctions
- Padma Shri, janvier 2020[9].
+ 9 Years Long Service Medal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Padma_Bandopadhyay</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Padma_Bandopadhyay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions et hommages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres distinctions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Padma Shri, janvier 2020.
 Prix Indira Priyadarshini.</t>
         </is>
       </c>
